--- a/Parameters/UCosts.xlsx
+++ b/Parameters/UCosts.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380F016B-6D6A-45A2-8D2C-CE987EAE5B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E498BA-B6BD-428B-B1B9-38C4A6FCFE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,15 +29,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>UserName</t>
+    <t>UserCostPodr</t>
   </si>
   <si>
-    <t>Cost</t>
+    <t>CostUserName</t>
   </si>
   <si>
-    <t>UserPodr</t>
+    <t>UserHourCost</t>
+  </si>
+  <si>
+    <t>UserMonthCost</t>
   </si>
 </sst>
 </file>
@@ -405,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F53492B-E9B6-44FD-A10D-37455B40CAC6}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -414,209 +417,249 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="60.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D24">
     <sortCondition ref="B2:B24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Parameters/UCosts.xlsx
+++ b/Parameters/UCosts.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E498BA-B6BD-428B-B1B9-38C4A6FCFE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6382BC3A-15AA-4310-8D95-33B9947D9399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Costs" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>UserCostPodr</t>
   </si>
@@ -41,6 +41,30 @@
   </si>
   <si>
     <t>UserMonthCost</t>
+  </si>
+  <si>
+    <t>UHCost_KV1</t>
+  </si>
+  <si>
+    <t>UMCost_KV1</t>
+  </si>
+  <si>
+    <t>UHCost_KV2</t>
+  </si>
+  <si>
+    <t>UMCost_KV2</t>
+  </si>
+  <si>
+    <t>UHCost_KV3</t>
+  </si>
+  <si>
+    <t>UMCost_KV3</t>
+  </si>
+  <si>
+    <t>UHCost_KV4</t>
+  </si>
+  <si>
+    <t>UMCost_KV4</t>
   </si>
 </sst>
 </file>
@@ -105,7 +129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -127,6 +151,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -408,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F53492B-E9B6-44FD-A10D-37455B40CAC6}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -419,10 +444,19 @@
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="60.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -435,188 +469,396 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>

--- a/Parameters/UCosts.xlsx
+++ b/Parameters/UCosts.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6382BC3A-15AA-4310-8D95-33B9947D9399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2527CD20-C5FF-4B7F-92F6-156F729413A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Costs" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>UserCostPodr</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>UMCost_KV4</t>
+  </si>
+  <si>
+    <t>#Пример1</t>
+  </si>
+  <si>
+    <t>#Пример2</t>
+  </si>
+  <si>
+    <t>#Пример3</t>
   </si>
 </sst>
 </file>
@@ -96,18 +105,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -129,29 +132,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -433,475 +451,596 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F53492B-E9B6-44FD-A10D-37455B40CAC6}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="60.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="7"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="7"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G24">
     <sortCondition ref="B2:B24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Parameters/UCosts.xlsx
+++ b/Parameters/UCosts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2527CD20-C5FF-4B7F-92F6-156F729413A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CA7D3E-8E05-4E9A-BEF4-5B3C6F24B54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-11175" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Costs" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>UserCostPodr</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>#Пример3</t>
+  </si>
+  <si>
+    <t>UCYear</t>
   </si>
 </sst>
 </file>
@@ -132,7 +135,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -147,28 +150,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -451,599 +449,456 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F53492B-E9B6-44FD-A10D-37455B40CAC6}">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="6" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="3"/>
+      <c r="C25" s="1"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="3"/>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="3"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="3"/>
+      <c r="C27" s="1"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="1"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="3"/>
+      <c r="C28" s="1"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="3"/>
       <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="3"/>
+      <c r="C29" s="1"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="1"/>
+      <c r="F29" s="3"/>
       <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="3"/>
+      <c r="C30" s="1"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="3"/>
       <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="3"/>
+      <c r="C31" s="1"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="1"/>
+      <c r="F31" s="3"/>
       <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="3"/>
+      <c r="C32" s="1"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="3"/>
       <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="3"/>
+      <c r="C33" s="1"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="1"/>
+      <c r="F33" s="3"/>
       <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="3"/>
+      <c r="C34" s="1"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="1"/>
+      <c r="F34" s="3"/>
       <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="3"/>
+      <c r="C35" s="1"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="1"/>
+      <c r="F35" s="3"/>
       <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="3"/>
+      <c r="C36" s="1"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="1"/>
+      <c r="F36" s="3"/>
       <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="3"/>
+      <c r="C37" s="1"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="1"/>
+      <c r="F37" s="3"/>
       <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="3"/>
+      <c r="C38" s="1"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="1"/>
+      <c r="F38" s="3"/>
       <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H24">
     <sortCondition ref="B2:B24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Parameters/UCosts.xlsx
+++ b/Parameters/UCosts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CA7D3E-8E05-4E9A-BEF4-5B3C6F24B54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8ECEEB-0C38-4AC7-A5CB-154275F625A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-11175" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>UserCostPodr</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>UCYear</t>
+  </si>
+  <si>
+    <t>UserCostKey</t>
   </si>
 </sst>
 </file>
@@ -449,454 +452,458 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F53492B-E9B6-44FD-A10D-37455B40CAC6}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="6" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="7" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="5"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="6"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="6"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="5"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="3"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="5"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="6"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="6"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="6"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="5"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="1"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="6"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="3"/>
+      <c r="D25" s="1"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="3"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="3"/>
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="3"/>
+      <c r="D27" s="1"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="1"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="3"/>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="3"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="3"/>
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="3"/>
+      <c r="D30" s="1"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="3"/>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="3"/>
+      <c r="D31" s="1"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="3"/>
       <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="3"/>
+      <c r="D32" s="1"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="3"/>
       <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="3"/>
+      <c r="D33" s="1"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="3"/>
       <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="3"/>
+      <c r="D34" s="1"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="3"/>
       <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="3"/>
+      <c r="D35" s="1"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="1"/>
+      <c r="G35" s="3"/>
       <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="3"/>
+      <c r="D36" s="1"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="3"/>
       <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="3"/>
+      <c r="D37" s="1"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="3"/>
       <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="3"/>
+      <c r="D38" s="1"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="1"/>
+      <c r="G38" s="3"/>
       <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H24">
-    <sortCondition ref="B2:B24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:I24">
+    <sortCondition ref="C2:C24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
